--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il18-Il18rap.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il18-Il18rap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Il18rap</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +528,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.82593829902451</v>
+        <v>3.855689333333333</v>
       </c>
       <c r="H2">
-        <v>3.82593829902451</v>
+        <v>11.567068</v>
       </c>
       <c r="I2">
-        <v>0.1513973488350295</v>
+        <v>0.1340401150840085</v>
       </c>
       <c r="J2">
-        <v>0.1513973488350295</v>
+        <v>0.1340401150840085</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.273055459646815</v>
+        <v>0.1125586666666667</v>
       </c>
       <c r="N2">
-        <v>0.273055459646815</v>
+        <v>0.337676</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.08976149178944288</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.0897614917894429</v>
       </c>
       <c r="Q2">
-        <v>1.044693340820491</v>
+        <v>0.4339912504408888</v>
       </c>
       <c r="R2">
-        <v>1.044693340820491</v>
+        <v>3.905921253967999</v>
       </c>
       <c r="S2">
-        <v>0.1513973488350295</v>
+        <v>0.01203164068956921</v>
       </c>
       <c r="T2">
-        <v>0.1513973488350295</v>
+        <v>0.01203164068956921</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,57 +593,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.4187799625445</v>
+        <v>3.855689333333333</v>
       </c>
       <c r="H3">
-        <v>19.4187799625445</v>
+        <v>11.567068</v>
       </c>
       <c r="I3">
-        <v>0.7684263503908634</v>
+        <v>0.1340401150840085</v>
       </c>
       <c r="J3">
-        <v>0.7684263503908634</v>
+        <v>0.1340401150840085</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.273055459646815</v>
+        <v>0.3610756666666666</v>
       </c>
       <c r="N3">
-        <v>0.273055459646815</v>
+        <v>1.083227</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.287944868651023</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.287944868651023</v>
       </c>
       <c r="Q3">
-        <v>5.302403888452949</v>
+        <v>1.392195596492888</v>
       </c>
       <c r="R3">
-        <v>5.302403888452949</v>
+        <v>12.529760368436</v>
       </c>
       <c r="S3">
-        <v>0.7684263503908634</v>
+        <v>0.03859616333183284</v>
       </c>
       <c r="T3">
-        <v>0.7684263503908634</v>
+        <v>0.03859616333183285</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +652,427 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3.855689333333333</v>
+      </c>
+      <c r="H4">
+        <v>11.567068</v>
+      </c>
+      <c r="I4">
+        <v>0.1340401150840085</v>
+      </c>
+      <c r="J4">
+        <v>0.1340401150840085</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.7803406666666667</v>
+      </c>
+      <c r="N4">
+        <v>2.341022</v>
+      </c>
+      <c r="O4">
+        <v>0.622293639559534</v>
+      </c>
+      <c r="P4">
+        <v>0.622293639559534</v>
+      </c>
+      <c r="Q4">
+        <v>3.008751184832889</v>
+      </c>
+      <c r="R4">
+        <v>27.078760663496</v>
+      </c>
+      <c r="S4">
+        <v>0.08341231106260645</v>
+      </c>
+      <c r="T4">
+        <v>0.08341231106260646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2.02612253230415</v>
-      </c>
-      <c r="H4">
-        <v>2.02612253230415</v>
-      </c>
-      <c r="I4">
-        <v>0.0801763007741071</v>
-      </c>
-      <c r="J4">
-        <v>0.0801763007741071</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.273055459646815</v>
-      </c>
-      <c r="N4">
-        <v>0.273055459646815</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.5532438193590784</v>
-      </c>
-      <c r="R4">
-        <v>0.5532438193590784</v>
-      </c>
-      <c r="S4">
-        <v>0.0801763007741071</v>
-      </c>
-      <c r="T4">
-        <v>0.0801763007741071</v>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>22.00607133333333</v>
+      </c>
+      <c r="H5">
+        <v>66.018214</v>
+      </c>
+      <c r="I5">
+        <v>0.7650243780187601</v>
+      </c>
+      <c r="J5">
+        <v>0.7650243780187601</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1125586666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.337676</v>
+      </c>
+      <c r="O5">
+        <v>0.08976149178944288</v>
+      </c>
+      <c r="P5">
+        <v>0.0897614917894429</v>
+      </c>
+      <c r="Q5">
+        <v>2.476974047851555</v>
+      </c>
+      <c r="R5">
+        <v>22.292766430664</v>
+      </c>
+      <c r="S5">
+        <v>0.06866972942625459</v>
+      </c>
+      <c r="T5">
+        <v>0.0686697294262546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>22.00607133333333</v>
+      </c>
+      <c r="H6">
+        <v>66.018214</v>
+      </c>
+      <c r="I6">
+        <v>0.7650243780187601</v>
+      </c>
+      <c r="J6">
+        <v>0.7650243780187601</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.3610756666666666</v>
+      </c>
+      <c r="N6">
+        <v>1.083227</v>
+      </c>
+      <c r="O6">
+        <v>0.287944868651023</v>
+      </c>
+      <c r="P6">
+        <v>0.287944868651023</v>
+      </c>
+      <c r="Q6">
+        <v>7.945856877397556</v>
+      </c>
+      <c r="R6">
+        <v>71.512711896578</v>
+      </c>
+      <c r="S6">
+        <v>0.2202848440434425</v>
+      </c>
+      <c r="T6">
+        <v>0.2202848440434425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>22.00607133333333</v>
+      </c>
+      <c r="H7">
+        <v>66.018214</v>
+      </c>
+      <c r="I7">
+        <v>0.7650243780187601</v>
+      </c>
+      <c r="J7">
+        <v>0.7650243780187601</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.7803406666666667</v>
+      </c>
+      <c r="N7">
+        <v>2.341022</v>
+      </c>
+      <c r="O7">
+        <v>0.622293639559534</v>
+      </c>
+      <c r="P7">
+        <v>0.622293639559534</v>
+      </c>
+      <c r="Q7">
+        <v>17.17223237496756</v>
+      </c>
+      <c r="R7">
+        <v>154.550091374708</v>
+      </c>
+      <c r="S7">
+        <v>0.476069804549063</v>
+      </c>
+      <c r="T7">
+        <v>0.476069804549063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.903429</v>
+      </c>
+      <c r="H8">
+        <v>8.710287000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.1009355068972313</v>
+      </c>
+      <c r="J8">
+        <v>0.1009355068972313</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1125586666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.337676</v>
+      </c>
+      <c r="O8">
+        <v>0.08976149178944288</v>
+      </c>
+      <c r="P8">
+        <v>0.0897614917894429</v>
+      </c>
+      <c r="Q8">
+        <v>0.3268060970013333</v>
+      </c>
+      <c r="R8">
+        <v>2.941254873012</v>
+      </c>
+      <c r="S8">
+        <v>0.009060121673619083</v>
+      </c>
+      <c r="T8">
+        <v>0.009060121673619085</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.903429</v>
+      </c>
+      <c r="H9">
+        <v>8.710287000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.1009355068972313</v>
+      </c>
+      <c r="J9">
+        <v>0.1009355068972313</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.3610756666666666</v>
+      </c>
+      <c r="N9">
+        <v>1.083227</v>
+      </c>
+      <c r="O9">
+        <v>0.287944868651023</v>
+      </c>
+      <c r="P9">
+        <v>0.287944868651023</v>
+      </c>
+      <c r="Q9">
+        <v>1.048357561794333</v>
+      </c>
+      <c r="R9">
+        <v>9.435218056149001</v>
+      </c>
+      <c r="S9">
+        <v>0.0290638612757477</v>
+      </c>
+      <c r="T9">
+        <v>0.0290638612757477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.903429</v>
+      </c>
+      <c r="H10">
+        <v>8.710287000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.1009355068972313</v>
+      </c>
+      <c r="J10">
+        <v>0.1009355068972313</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.7803406666666667</v>
+      </c>
+      <c r="N10">
+        <v>2.341022</v>
+      </c>
+      <c r="O10">
+        <v>0.622293639559534</v>
+      </c>
+      <c r="P10">
+        <v>0.622293639559534</v>
+      </c>
+      <c r="Q10">
+        <v>2.265663721479334</v>
+      </c>
+      <c r="R10">
+        <v>20.390973493314</v>
+      </c>
+      <c r="S10">
+        <v>0.06281152394786452</v>
+      </c>
+      <c r="T10">
+        <v>0.06281152394786452</v>
       </c>
     </row>
   </sheetData>
